--- a/src/test/resources/Documents/33229/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33229/Base/JobPlanning.xlsx
@@ -1121,13 +1121,13 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="55">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="56">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1136,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="60">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s" s="61">
         <v>18</v>
@@ -1151,10 +1151,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s" s="74">
         <v>18</v>
@@ -1192,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1203,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1218,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="86">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1233,10 +1233,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
